--- a/server/out_of_stock_log.xlsx
+++ b/server/out_of_stock_log.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -570,9 +570,23 @@
         <v>13/6/2025, 10:31:07 pm</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>x1</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Screwdriver</v>
+      </c>
+      <c r="C13" t="str">
+        <v>2025-06-14T03:23:22.852Z</v>
+      </c>
+      <c r="D13" t="str">
+        <v>14/6/2025, 8:53:22 am</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D12"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D13"/>
   </ignoredErrors>
 </worksheet>
 </file>